--- a/業務フロー（改善後）.xlsx
+++ b/業務フロー（改善後）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\workspace\14_extratask\01_Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBBD29A-2375-4AE1-B7A9-DCE6EA4E31FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED3F1A2-2240-47E7-8146-8F05BC10E20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{4C1BF1F2-D8D5-40FF-92F2-B588528DFBEA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4C1BF1F2-D8D5-40FF-92F2-B588528DFBEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,13 +110,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -191,16 +191,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -215,8 +215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="914400"/>
-          <a:ext cx="1320800" cy="781050"/>
+          <a:off x="1981200" y="825500"/>
+          <a:ext cx="1320800" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -257,7 +257,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>従業員が出勤時・退勤時に打刻</a:t>
+            <a:t>従業員が出勤時・退勤時に打刻（スマホ、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、カードリーダー）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -266,15 +282,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -332,7 +348,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>残業申請を作成</a:t>
+            <a:t>スマホ・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>から残業申請を作成</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -341,15 +373,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -419,9 +451,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328423"/>
@@ -505,16 +537,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -532,8 +564,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1320800" y="685800"/>
-          <a:ext cx="0" cy="228600"/>
+          <a:off x="2641600" y="685800"/>
+          <a:ext cx="0" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -561,15 +593,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -588,8 +620,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1320800" y="1695450"/>
-          <a:ext cx="0" cy="342900"/>
+          <a:off x="2641600" y="1816100"/>
+          <a:ext cx="0" cy="222250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -617,15 +649,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>613316</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>170562</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -673,16 +705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -697,8 +729,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2641600" y="3282950"/>
-          <a:ext cx="1320800" cy="781050"/>
+          <a:off x="3962400" y="3994150"/>
+          <a:ext cx="1320800" cy="882650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -739,7 +771,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>上長による残業申請承認</a:t>
+            <a:t>上長による残業申請承認（ボタンタップ）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -748,16 +780,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -772,7 +804,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="3295650"/>
+          <a:off x="1981200" y="3321050"/>
           <a:ext cx="1320800" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -823,16 +855,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -850,8 +882,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1320800" y="2844800"/>
-          <a:ext cx="0" cy="450850"/>
+          <a:off x="2641600" y="3073400"/>
+          <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -879,16 +911,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -901,13 +933,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="18" idx="0"/>
+          <a:endCxn id="23" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3302000" y="2838450"/>
-          <a:ext cx="0" cy="444500"/>
+          <a:off x="4622800" y="3067050"/>
+          <a:ext cx="0" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -935,9 +967,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -993,10 +1025,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="607859" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -1012,7 +1044,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="673100" y="2984500"/>
+          <a:off x="1987550" y="3016250"/>
           <a:ext cx="607859" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1051,16 +1083,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1075,7 +1107,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="4476750"/>
+          <a:off x="1981200" y="4953000"/>
           <a:ext cx="1320800" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1126,16 +1158,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1148,13 +1180,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="2"/>
-          <a:endCxn id="35" idx="0"/>
+          <a:endCxn id="29" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1320800" y="4076700"/>
-          <a:ext cx="0" cy="400050"/>
+          <a:off x="2641600" y="4102100"/>
+          <a:ext cx="0" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1182,16 +1214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1206,7 +1238,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="5657850"/>
+          <a:off x="1981200" y="6940550"/>
           <a:ext cx="1320800" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1257,16 +1289,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1279,13 +1311,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="35" idx="2"/>
-          <a:endCxn id="40" idx="0"/>
+          <a:endCxn id="38" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1320800" y="5257800"/>
-          <a:ext cx="0" cy="400050"/>
+          <a:off x="2641600" y="5734050"/>
+          <a:ext cx="0" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1313,16 +1345,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1340,8 +1372,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1320800" y="6438900"/>
-          <a:ext cx="0" cy="412750"/>
+          <a:off x="2641600" y="7721600"/>
+          <a:ext cx="0" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1369,16 +1401,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1396,8 +1428,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2239963" y="3805237"/>
-          <a:ext cx="803275" cy="1320800"/>
+          <a:off x="3729038" y="4449762"/>
+          <a:ext cx="466725" cy="1320800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1425,16 +1457,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1449,7 +1481,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="6851650"/>
+          <a:off x="1981200" y="8039100"/>
           <a:ext cx="1320800" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1498,6 +1530,716 @@
               </a:solidFill>
             </a:rPr>
             <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD1350D-081C-096B-6F9B-819F77654217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5416550" y="2654300"/>
+          <a:ext cx="1390650" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数タップのみの少ない手間で申請／承認可能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854D4FE1-6C84-4F1C-B15B-E0D8C1D12B21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="463550" y="4419600"/>
+          <a:ext cx="1390650" cy="1187450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タップの勤怠申請、承認により、自動連係までスムーズに進行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D344D2-2DD2-483E-A3F9-5FE3A2BCC8D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="3295650"/>
+          <a:ext cx="1320800" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メールで申請通知</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B401A2-AE1F-4F50-A566-EB186153504E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4622800" y="3752850"/>
+          <a:ext cx="0" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7420AE-268B-48D8-B1AB-7ED411EE57D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="4286250"/>
+          <a:ext cx="1320800" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メールで申請通知</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67851593-B8E4-42FD-9543-94AD367687D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="4743450"/>
+          <a:ext cx="0" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72403F9E-66C7-4BDD-81E2-B3BFBD481CE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="5911850"/>
+          <a:ext cx="1320800" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自動で勤怠集計</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4B1A8C-81D6-4237-968F-ED58FB595CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="6692900"/>
+          <a:ext cx="0" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA1F96E-2EDF-403F-8DE8-9E695A6DD225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1987550" y="2254250"/>
+          <a:ext cx="1320800" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力忘れの場合、自動でメールアラートが届く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="吹き出し: 四角形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACA9258-DD0A-EE5D-9D4A-57AA13B786D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="463550" y="1428750"/>
+          <a:ext cx="1390650" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>簡単な打刻方法とメールアラートで入力忘れ防止</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1826,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E101B9-5275-4243-AE5E-B9A75F971ECD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
